--- a/data/Test_Matrix.xlsx
+++ b/data/Test_Matrix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisfranciscocontrerasgonzalez/Documents/QAMinds/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisfranciscocontrerasgonzalez/Documents/selenium_with_python_practice/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B35964C5-6178-014A-9F1A-9C0DE2C39CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3017BB85-1B3C-A049-87EB-C2591D4A4E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="740" windowWidth="29180" windowHeight="16520" xr2:uid="{EF7BC90D-E430-5848-8C42-6A8FB5387759}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ID Test</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>abc2022</t>
   </si>
   <si>
     <t>luisfco</t>
@@ -426,7 +423,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -462,10 +459,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
         <v>7</v>
+      </c>
+      <c r="E2">
+        <v>1234</v>
       </c>
     </row>
   </sheetData>

--- a/data/Test_Matrix.xlsx
+++ b/data/Test_Matrix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisfranciscocontrerasgonzalez/Documents/selenium_with_python_practice/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3017BB85-1B3C-A049-87EB-C2591D4A4E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A858163-1A09-D94E-8B48-8B60433CDF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="740" windowWidth="29180" windowHeight="16520" xr2:uid="{EF7BC90D-E430-5848-8C42-6A8FB5387759}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>ID Test</t>
   </si>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7082D2-2612-2D4A-BBB9-E3129198B781}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -465,6 +465,23 @@
         <v>1234</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>1234</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
